--- a/tracking/compare/tracking-jibang.xlsx
+++ b/tracking/compare/tracking-jibang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C34EC946-2308-4171-9409-5F202A71B96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22F4F63-8022-4C25-96F5-FD8F8442FC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-168" yWindow="84" windowWidth="23016" windowHeight="12336" xr2:uid="{F72F01C2-0D10-4A5D-9DEC-7CBA030793CA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F72F01C2-0D10-4A5D-9DEC-7CBA030793CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>ID</t>
   </si>
@@ -34,351 +34,6 @@
   </si>
   <si>
     <t>타입</t>
-  </si>
-  <si>
-    <t>e편한세상서울대입구</t>
-  </si>
-  <si>
-    <t>관악푸르지오</t>
-  </si>
-  <si>
-    <t>두산</t>
-  </si>
-  <si>
-    <t>힐스테이트뉴포레</t>
-  </si>
-  <si>
-    <t>신림푸르지오1차</t>
-  </si>
-  <si>
-    <t>신림신도브래뉴</t>
-  </si>
-  <si>
-    <t>신림푸르지오2차</t>
-  </si>
-  <si>
-    <t>관악산휴먼시아2단지</t>
-  </si>
-  <si>
-    <t>신림동부센트레빌</t>
-  </si>
-  <si>
-    <t>경희궁자이2단지</t>
-  </si>
-  <si>
-    <t>광화문스페이스본</t>
-  </si>
-  <si>
-    <t>인왕산현대아이파크</t>
-  </si>
-  <si>
-    <t>서울역센트럴자이</t>
-  </si>
-  <si>
-    <t>중림삼성사이버빌리지</t>
-  </si>
-  <si>
-    <t>덕수궁롯데캐슬(주상복합)</t>
-  </si>
-  <si>
-    <t>청구e편한세상</t>
-  </si>
-  <si>
-    <t>래미안하이베르</t>
-  </si>
-  <si>
-    <t>롯데캐슬베네치아(주상복합</t>
-  </si>
-  <si>
-    <t>남산센트럴자이(주상복합)</t>
-  </si>
-  <si>
-    <t>남산타운</t>
-  </si>
-  <si>
-    <t>약수하이츠</t>
-  </si>
-  <si>
-    <t>래미안길음센터피스</t>
-  </si>
-  <si>
-    <t>롯데캐슬클라시아</t>
-  </si>
-  <si>
-    <t>길음뉴타운9단지래미안</t>
-  </si>
-  <si>
-    <t>래미안라센트</t>
-  </si>
-  <si>
-    <t>래미안세레니티</t>
-  </si>
-  <si>
-    <t>종암동SK</t>
-  </si>
-  <si>
-    <t>브라운스톤돈암</t>
-  </si>
-  <si>
-    <t>보문파크뷰자이</t>
-  </si>
-  <si>
-    <t>보문리슈빌하우트</t>
-  </si>
-  <si>
-    <t>꿈의숲아이파크</t>
-  </si>
-  <si>
-    <t>월곡두산위브</t>
-  </si>
-  <si>
-    <t>래미안아트리치</t>
-  </si>
-  <si>
-    <t xml:space="preserve">목동신시가지7단지 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">목동현대1차 </t>
-  </si>
-  <si>
-    <t>목동성원</t>
-  </si>
-  <si>
-    <t>래미안목동아델리체</t>
-  </si>
-  <si>
-    <t>호반써밋목동</t>
-  </si>
-  <si>
-    <t>동일하이빌2단지</t>
-  </si>
-  <si>
-    <t>목동롯데캐슬마에스트로</t>
-  </si>
-  <si>
-    <t>목동롯데캐슬위너</t>
-  </si>
-  <si>
-    <t>목동e-편한세상</t>
-  </si>
-  <si>
-    <t>목동센트럴아이파크위브</t>
-  </si>
-  <si>
-    <t>신정뉴타운롯데캐슬</t>
-  </si>
-  <si>
-    <t>신목동파라곤</t>
-  </si>
-  <si>
-    <t>위례센트럴자이</t>
-  </si>
-  <si>
-    <t>위례프르지오</t>
-  </si>
-  <si>
-    <t>위례래미안이편한세상</t>
-  </si>
-  <si>
-    <t>산성역포레스티아</t>
-  </si>
-  <si>
-    <t>센트럴타운</t>
-  </si>
-  <si>
-    <t>e편한세상금빛그랑메종1단지</t>
-  </si>
-  <si>
-    <t>판교밸리호반써밋</t>
-  </si>
-  <si>
-    <t>성남어울림</t>
-  </si>
-  <si>
-    <t>단대푸르지오</t>
-  </si>
-  <si>
-    <t>삼부</t>
-  </si>
-  <si>
-    <t>동분당포레스트</t>
-  </si>
-  <si>
-    <t>e편한세상신촌</t>
-  </si>
-  <si>
-    <t>신촌푸르지오</t>
-  </si>
-  <si>
-    <t>돈의문센트레빌</t>
-  </si>
-  <si>
-    <t>천연뜨란채</t>
-  </si>
-  <si>
-    <t>독립문극동</t>
-  </si>
-  <si>
-    <t>DMC파크뷰자이</t>
-  </si>
-  <si>
-    <t>홍제역해링턴플레이스</t>
-  </si>
-  <si>
-    <t>인왕산현대(인왕산힐스테이트)</t>
-  </si>
-  <si>
-    <t>e편한세상서대문</t>
-  </si>
-  <si>
-    <t>연희파크푸르지오</t>
-  </si>
-  <si>
-    <t>힐스테이트홍은포레스트</t>
-  </si>
-  <si>
-    <t>서울숲힐스테이트</t>
-  </si>
-  <si>
-    <t>성수롯데캐슬파크</t>
-  </si>
-  <si>
-    <t>쌍용</t>
-  </si>
-  <si>
-    <t>e편한세상옥수파크힐스</t>
-  </si>
-  <si>
-    <t>옥수어울림</t>
-  </si>
-  <si>
-    <t>옥수삼성</t>
-  </si>
-  <si>
-    <t>e편한세상금호파크힐스</t>
-  </si>
-  <si>
-    <t>센트라스</t>
-  </si>
-  <si>
-    <t>대림강변타운</t>
-  </si>
-  <si>
-    <t>금호1차푸르지오</t>
-  </si>
-  <si>
-    <t>왕십리자이</t>
-  </si>
-  <si>
-    <t>왕십리금호어울림</t>
-  </si>
-  <si>
-    <t>녹번역e편한세상캐슬</t>
-  </si>
-  <si>
-    <t>래미안베라힐즈</t>
-  </si>
-  <si>
-    <t>백련산해모로</t>
-  </si>
-  <si>
-    <t>DMC센트럴자이</t>
-  </si>
-  <si>
-    <t>DMC SK뷰</t>
-  </si>
-  <si>
-    <t>DMC파인시티자이</t>
-  </si>
-  <si>
-    <t>북한산힐스테이트7차</t>
-  </si>
-  <si>
-    <t>불광롯데캐슬</t>
-  </si>
-  <si>
-    <t>은평뉴타운박석고개힐스테이트1단지</t>
-  </si>
-  <si>
-    <t>센트레빌아스테리움시그니처</t>
-  </si>
-  <si>
-    <t>응암역효성해링턴플레이스</t>
-  </si>
-  <si>
-    <t>경남아너스빌</t>
-  </si>
-  <si>
-    <t>사가정센트럴아이파크</t>
-  </si>
-  <si>
-    <t>한양수자인사가정파크</t>
-  </si>
-  <si>
-    <t>용마산하늘채</t>
-  </si>
-  <si>
-    <t>리버센SK롯데캐슬</t>
-  </si>
-  <si>
-    <t>e편한세상화랑대</t>
-  </si>
-  <si>
-    <t>태릉브라운스톤</t>
-  </si>
-  <si>
-    <t>데시앙</t>
-  </si>
-  <si>
-    <t>상봉태영데시앙</t>
-  </si>
-  <si>
-    <t>신내8단지두산화성</t>
-  </si>
-  <si>
-    <t>중랑숲시티프라디움</t>
-  </si>
-  <si>
-    <t>신내데시앙포레</t>
-  </si>
-  <si>
-    <t>중랑숲리가</t>
-  </si>
-  <si>
-    <t>귀인마을현대홈타운</t>
-  </si>
-  <si>
-    <t>초원2단지대림</t>
-  </si>
-  <si>
-    <t>무궁화경남</t>
-  </si>
-  <si>
-    <t>평촌더샵센트럴시티</t>
-  </si>
-  <si>
-    <t>인덕원마을삼성</t>
-  </si>
-  <si>
-    <t>은하수(벽산)</t>
-  </si>
-  <si>
-    <t>평촌센텀퍼스트</t>
-  </si>
-  <si>
-    <t>평촌트리지아</t>
-  </si>
-  <si>
-    <t>호계현대홈타운1차</t>
-  </si>
-  <si>
-    <t>평촌래미안푸르지오</t>
-  </si>
-  <si>
-    <t>동편마을3단지</t>
-  </si>
-  <si>
-    <t>평촌엘프라우드</t>
   </si>
   <si>
     <t>크로바</t>
@@ -756,7 +411,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -792,9 +447,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1112,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA9D98A-2074-4B56-BBA4-6AC6B2B7E20B}">
   <dimension ref="A1:C204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.3"/>
@@ -1136,8 +788,8 @@
       <c r="A2" s="3">
         <v>5986</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>118</v>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="4">
         <v>84</v>
@@ -1147,8 +799,8 @@
       <c r="A3" s="5">
         <v>5962</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>119</v>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
       <c r="C3" s="4">
         <v>75</v>
@@ -1158,8 +810,8 @@
       <c r="A4" s="3">
         <v>5997</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>120</v>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="4">
         <v>76</v>
@@ -1169,8 +821,8 @@
       <c r="A5" s="5">
         <v>5847</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>121</v>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
       <c r="C5" s="4">
         <v>84</v>
@@ -1180,8 +832,8 @@
       <c r="A6" s="3">
         <v>5758</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>122</v>
+      <c r="B6" t="s">
+        <v>7</v>
       </c>
       <c r="C6" s="4">
         <v>100</v>
@@ -1191,8 +843,8 @@
       <c r="A7" s="5">
         <v>5866</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>123</v>
+      <c r="B7" t="s">
+        <v>8</v>
       </c>
       <c r="C7" s="4">
         <v>83</v>
@@ -1202,8 +854,8 @@
       <c r="A8" s="3">
         <v>122931</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>124</v>
+      <c r="B8" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="4">
         <v>84</v>
@@ -1213,8 +865,8 @@
       <c r="A9" s="5">
         <v>103924</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>125</v>
+      <c r="B9" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="4">
         <v>78</v>
@@ -1224,8 +876,8 @@
       <c r="A10" s="3">
         <v>101355</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>126</v>
+      <c r="B10" t="s">
+        <v>11</v>
       </c>
       <c r="C10" s="4">
         <v>84</v>
@@ -1235,8 +887,8 @@
       <c r="A11" s="5">
         <v>111686</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>127</v>
+      <c r="B11" t="s">
+        <v>12</v>
       </c>
       <c r="C11" s="4">
         <v>75</v>
@@ -1246,8 +898,8 @@
       <c r="A12" s="3">
         <v>111290</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>128</v>
+      <c r="B12" t="s">
+        <v>13</v>
       </c>
       <c r="C12" s="4">
         <v>72</v>
@@ -1257,8 +909,8 @@
       <c r="A13" s="5">
         <v>108763</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>129</v>
+      <c r="B13" t="s">
+        <v>14</v>
       </c>
       <c r="C13" s="4">
         <v>74</v>
@@ -1268,8 +920,8 @@
       <c r="A14" s="3">
         <v>125317</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>130</v>
+      <c r="B14" t="s">
+        <v>15</v>
       </c>
       <c r="C14" s="4">
         <v>84</v>
@@ -1279,8 +931,8 @@
       <c r="A15" s="5">
         <v>103846</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>131</v>
+      <c r="B15" t="s">
+        <v>16</v>
       </c>
       <c r="C15" s="4">
         <v>84</v>
@@ -1290,8 +942,8 @@
       <c r="A16" s="3">
         <v>102411</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>132</v>
+      <c r="B16" t="s">
+        <v>17</v>
       </c>
       <c r="C16" s="4">
         <v>84</v>
@@ -1301,8 +953,8 @@
       <c r="A17" s="5">
         <v>117898</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>133</v>
+      <c r="B17" t="s">
+        <v>18</v>
       </c>
       <c r="C17" s="4">
         <v>84</v>
@@ -1312,8 +964,8 @@
       <c r="A18" s="3">
         <v>6136</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>134</v>
+      <c r="B18" t="s">
+        <v>19</v>
       </c>
       <c r="C18" s="4">
         <v>84</v>
@@ -1323,8 +975,8 @@
       <c r="A19" s="5">
         <v>103356</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>135</v>
+      <c r="B19" t="s">
+        <v>20</v>
       </c>
       <c r="C19" s="4">
         <v>84</v>
@@ -1334,8 +986,8 @@
       <c r="A20" s="3">
         <v>23725</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>136</v>
+      <c r="B20" t="s">
+        <v>21</v>
       </c>
       <c r="C20" s="4">
         <v>84</v>
@@ -1345,8 +997,8 @@
       <c r="A21" s="5">
         <v>100524</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>137</v>
+      <c r="B21" t="s">
+        <v>22</v>
       </c>
       <c r="C21" s="4">
         <v>84</v>
@@ -1356,8 +1008,8 @@
       <c r="A22" s="3">
         <v>17466</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>138</v>
+      <c r="B22" t="s">
+        <v>23</v>
       </c>
       <c r="C22" s="4">
         <v>84</v>
@@ -1367,8 +1019,8 @@
       <c r="A23" s="5">
         <v>109036</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>139</v>
+      <c r="B23" t="s">
+        <v>24</v>
       </c>
       <c r="C23" s="4">
         <v>84</v>
@@ -1378,8 +1030,8 @@
       <c r="A24" s="3">
         <v>6070</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>140</v>
+      <c r="B24" t="s">
+        <v>25</v>
       </c>
       <c r="C24" s="4">
         <v>84</v>
@@ -1389,8 +1041,8 @@
       <c r="A25" s="5">
         <v>6046</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>141</v>
+      <c r="B25" t="s">
+        <v>26</v>
       </c>
       <c r="C25" s="4">
         <v>84</v>
@@ -1400,8 +1052,8 @@
       <c r="A26" s="3">
         <v>114293</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>142</v>
+      <c r="B26" t="s">
+        <v>27</v>
       </c>
       <c r="C26" s="4">
         <v>84</v>
@@ -1411,8 +1063,8 @@
       <c r="A27" s="5">
         <v>107708</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>143</v>
+      <c r="B27" t="s">
+        <v>28</v>
       </c>
       <c r="C27" s="4">
         <v>84</v>
@@ -1422,8 +1074,8 @@
       <c r="A28" s="3">
         <v>106692</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>144</v>
+      <c r="B28" t="s">
+        <v>29</v>
       </c>
       <c r="C28" s="4">
         <v>84</v>
@@ -1433,8 +1085,8 @@
       <c r="A29" s="5">
         <v>112420</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>145</v>
+      <c r="B29" t="s">
+        <v>30</v>
       </c>
       <c r="C29" s="4">
         <v>70</v>
@@ -1444,8 +1096,8 @@
       <c r="A30" s="3">
         <v>113572</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>146</v>
+      <c r="B30" t="s">
+        <v>31</v>
       </c>
       <c r="C30" s="4">
         <v>74</v>
@@ -1455,8 +1107,8 @@
       <c r="A31" s="5">
         <v>106972</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>147</v>
+      <c r="B31" t="s">
+        <v>32</v>
       </c>
       <c r="C31" s="4">
         <v>84</v>
@@ -1466,8 +1118,8 @@
       <c r="A32" s="3">
         <v>114461</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>148</v>
+      <c r="B32" t="s">
+        <v>33</v>
       </c>
       <c r="C32" s="4">
         <v>72</v>
@@ -1477,8 +1129,8 @@
       <c r="A33" s="5">
         <v>122589</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>149</v>
+      <c r="B33" t="s">
+        <v>34</v>
       </c>
       <c r="C33" s="4">
         <v>84</v>
@@ -1488,8 +1140,8 @@
       <c r="A34" s="3">
         <v>18756</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>150</v>
+      <c r="B34" t="s">
+        <v>35</v>
       </c>
       <c r="C34" s="4">
         <v>84</v>
@@ -1499,8 +1151,8 @@
       <c r="A35" s="5">
         <v>103963</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>151</v>
+      <c r="B35" t="s">
+        <v>36</v>
       </c>
       <c r="C35" s="4">
         <v>84</v>
@@ -1510,8 +1162,8 @@
       <c r="A36" s="3">
         <v>112607</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>152</v>
+      <c r="B36" t="s">
+        <v>37</v>
       </c>
       <c r="C36" s="4">
         <v>84</v>
@@ -1521,8 +1173,8 @@
       <c r="A37" s="5">
         <v>108375</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>153</v>
+      <c r="B37" t="s">
+        <v>38</v>
       </c>
       <c r="C37" s="4">
         <v>84</v>
@@ -1532,8 +1184,8 @@
       <c r="A38" s="3">
         <v>110558</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>154</v>
+      <c r="B38" t="s">
+        <v>39</v>
       </c>
       <c r="C38" s="4">
         <v>84</v>
@@ -1543,8 +1195,8 @@
       <c r="A39" s="5">
         <v>126163</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>155</v>
+      <c r="B39" t="s">
+        <v>40</v>
       </c>
       <c r="C39" s="4">
         <v>84</v>
@@ -1554,8 +1206,8 @@
       <c r="A40" s="3">
         <v>111567</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>156</v>
+      <c r="B40" t="s">
+        <v>41</v>
       </c>
       <c r="C40" s="4">
         <v>84</v>
@@ -1565,8 +1217,8 @@
       <c r="A41" s="7">
         <v>112814</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>157</v>
+      <c r="B41" t="s">
+        <v>42</v>
       </c>
       <c r="C41" s="4">
         <v>74</v>
@@ -1576,8 +1228,8 @@
       <c r="A42" s="7">
         <v>104250</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>158</v>
+      <c r="B42" t="s">
+        <v>43</v>
       </c>
       <c r="C42" s="4">
         <v>84</v>
@@ -1587,8 +1239,8 @@
       <c r="A43" s="7">
         <v>108422</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>159</v>
+      <c r="B43" t="s">
+        <v>44</v>
       </c>
       <c r="C43" s="4">
         <v>84</v>
@@ -1598,8 +1250,8 @@
       <c r="A44" s="7">
         <v>115525</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>160</v>
+      <c r="B44" t="s">
+        <v>45</v>
       </c>
       <c r="C44" s="4">
         <v>84</v>
@@ -1609,8 +1261,8 @@
       <c r="A45" s="7">
         <v>109024</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>161</v>
+      <c r="B45" t="s">
+        <v>46</v>
       </c>
       <c r="C45" s="4">
         <v>84</v>
@@ -1620,8 +1272,8 @@
       <c r="A46" s="7">
         <v>103671</v>
       </c>
-      <c r="B46" s="12" t="s">
-        <v>162</v>
+      <c r="B46" t="s">
+        <v>47</v>
       </c>
       <c r="C46" s="4">
         <v>84</v>
@@ -1631,8 +1283,8 @@
       <c r="A47" s="7">
         <v>109541</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>163</v>
+      <c r="B47" t="s">
+        <v>48</v>
       </c>
       <c r="C47" s="4">
         <v>84</v>
@@ -1642,8 +1294,8 @@
       <c r="A48" s="7">
         <v>103591</v>
       </c>
-      <c r="B48" s="12" t="s">
-        <v>164</v>
+      <c r="B48" t="s">
+        <v>49</v>
       </c>
       <c r="C48" s="4">
         <v>84</v>
@@ -1653,8 +1305,8 @@
       <c r="A49" s="7">
         <v>101354</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>165</v>
+      <c r="B49" t="s">
+        <v>50</v>
       </c>
       <c r="C49" s="4">
         <v>84</v>
@@ -1664,8 +1316,8 @@
       <c r="A50" s="7">
         <v>17291</v>
       </c>
-      <c r="B50" s="12" t="s">
-        <v>166</v>
+      <c r="B50" t="s">
+        <v>51</v>
       </c>
       <c r="C50" s="4">
         <v>84</v>
@@ -1675,8 +1327,8 @@
       <c r="A51" s="7">
         <v>113478</v>
       </c>
-      <c r="B51" s="12" t="s">
-        <v>167</v>
+      <c r="B51" t="s">
+        <v>52</v>
       </c>
       <c r="C51" s="4">
         <v>84</v>
@@ -1686,8 +1338,8 @@
       <c r="A52" s="7">
         <v>125767</v>
       </c>
-      <c r="B52" s="12" t="s">
-        <v>168</v>
+      <c r="B52" t="s">
+        <v>53</v>
       </c>
       <c r="C52" s="4">
         <v>84</v>
@@ -1697,8 +1349,8 @@
       <c r="A53" s="5">
         <v>108766</v>
       </c>
-      <c r="B53" s="12" t="s">
-        <v>169</v>
+      <c r="B53" t="s">
+        <v>54</v>
       </c>
       <c r="C53" s="4">
         <v>84</v>
@@ -1708,8 +1360,8 @@
       <c r="A54" s="3">
         <v>109377</v>
       </c>
-      <c r="B54" s="12" t="s">
-        <v>170</v>
+      <c r="B54" t="s">
+        <v>55</v>
       </c>
       <c r="C54" s="4">
         <v>84</v>
@@ -1719,8 +1371,8 @@
       <c r="A55" s="5">
         <v>25557</v>
       </c>
-      <c r="B55" s="12" t="s">
-        <v>171</v>
+      <c r="B55" t="s">
+        <v>56</v>
       </c>
       <c r="C55" s="4">
         <v>84</v>
@@ -1730,8 +1382,8 @@
       <c r="A56" s="3">
         <v>26134</v>
       </c>
-      <c r="B56" s="12" t="s">
-        <v>172</v>
+      <c r="B56" t="s">
+        <v>57</v>
       </c>
       <c r="C56" s="4">
         <v>84</v>
@@ -1741,8 +1393,8 @@
       <c r="A57" s="5">
         <v>108523</v>
       </c>
-      <c r="B57" s="12" t="s">
-        <v>173</v>
+      <c r="B57" t="s">
+        <v>58</v>
       </c>
       <c r="C57" s="4">
         <v>84</v>
@@ -1752,8 +1404,8 @@
       <c r="A58" s="3">
         <v>121913</v>
       </c>
-      <c r="B58" s="12" t="s">
-        <v>174</v>
+      <c r="B58" t="s">
+        <v>59</v>
       </c>
       <c r="C58" s="4">
         <v>84</v>
@@ -1763,8 +1415,8 @@
       <c r="A59" s="5">
         <v>117453</v>
       </c>
-      <c r="B59" s="12" t="s">
-        <v>175</v>
+      <c r="B59" t="s">
+        <v>60</v>
       </c>
       <c r="C59" s="4">
         <v>84</v>
@@ -1774,8 +1426,8 @@
       <c r="A60" s="3">
         <v>26322</v>
       </c>
-      <c r="B60" s="12" t="s">
-        <v>176</v>
+      <c r="B60" t="s">
+        <v>61</v>
       </c>
       <c r="C60" s="4">
         <v>84</v>
@@ -1785,8 +1437,8 @@
       <c r="A61" s="5">
         <v>103358</v>
       </c>
-      <c r="B61" s="12" t="s">
-        <v>177</v>
+      <c r="B61" t="s">
+        <v>62</v>
       </c>
       <c r="C61" s="4">
         <v>84</v>
@@ -1796,8 +1448,8 @@
       <c r="A62" s="3">
         <v>146718</v>
       </c>
-      <c r="B62" s="12" t="s">
-        <v>178</v>
+      <c r="B62" t="s">
+        <v>63</v>
       </c>
       <c r="C62" s="4">
         <v>84</v>
@@ -1807,8 +1459,8 @@
       <c r="A63" s="5">
         <v>111627</v>
       </c>
-      <c r="B63" s="12" t="s">
-        <v>179</v>
+      <c r="B63" t="s">
+        <v>64</v>
       </c>
       <c r="C63" s="4">
         <v>84</v>
@@ -1818,8 +1470,8 @@
       <c r="A64" s="3">
         <v>107332</v>
       </c>
-      <c r="B64" s="12" t="s">
-        <v>180</v>
+      <c r="B64" t="s">
+        <v>65</v>
       </c>
       <c r="C64" s="4">
         <v>86</v>
@@ -1829,8 +1481,8 @@
       <c r="A65" s="5">
         <v>104895</v>
       </c>
-      <c r="B65" s="12" t="s">
-        <v>181</v>
+      <c r="B65" t="s">
+        <v>66</v>
       </c>
       <c r="C65" s="4">
         <v>84</v>
@@ -1840,8 +1492,8 @@
       <c r="A66" s="3">
         <v>127006</v>
       </c>
-      <c r="B66" s="12" t="s">
-        <v>182</v>
+      <c r="B66" t="s">
+        <v>67</v>
       </c>
       <c r="C66" s="4">
         <v>84</v>
@@ -1851,8 +1503,8 @@
       <c r="A67" s="7">
         <v>103168</v>
       </c>
-      <c r="B67" s="12" t="s">
-        <v>183</v>
+      <c r="B67" t="s">
+        <v>68</v>
       </c>
       <c r="C67" s="4">
         <v>84</v>
@@ -1862,8 +1514,8 @@
       <c r="A68" s="7">
         <v>117345</v>
       </c>
-      <c r="B68" s="12" t="s">
-        <v>184</v>
+      <c r="B68" t="s">
+        <v>69</v>
       </c>
       <c r="C68" s="4">
         <v>84</v>
@@ -1873,8 +1525,8 @@
       <c r="A69" s="7">
         <v>19228</v>
       </c>
-      <c r="B69" s="12" t="s">
-        <v>185</v>
+      <c r="B69" t="s">
+        <v>70</v>
       </c>
       <c r="C69" s="4">
         <v>84</v>
@@ -1884,8 +1536,8 @@
       <c r="A70" s="7">
         <v>119614</v>
       </c>
-      <c r="B70" s="12" t="s">
-        <v>186</v>
+      <c r="B70" t="s">
+        <v>71</v>
       </c>
       <c r="C70" s="4">
         <v>84</v>
@@ -1895,8 +1547,8 @@
       <c r="A71" s="7">
         <v>25580</v>
       </c>
-      <c r="B71" s="12" t="s">
-        <v>187</v>
+      <c r="B71" t="s">
+        <v>72</v>
       </c>
       <c r="C71" s="4">
         <v>84</v>
@@ -1906,8 +1558,8 @@
       <c r="A72" s="7">
         <v>110159</v>
       </c>
-      <c r="B72" s="12" t="s">
-        <v>188</v>
+      <c r="B72" t="s">
+        <v>73</v>
       </c>
       <c r="C72" s="4">
         <v>84</v>
@@ -1917,8 +1569,8 @@
       <c r="A73" s="7">
         <v>113134</v>
       </c>
-      <c r="B73" s="12" t="s">
-        <v>189</v>
+      <c r="B73" t="s">
+        <v>74</v>
       </c>
       <c r="C73" s="4">
         <v>75</v>
@@ -1928,8 +1580,8 @@
       <c r="A74" s="7">
         <v>132124</v>
       </c>
-      <c r="B74" s="12" t="s">
-        <v>190</v>
+      <c r="B74" t="s">
+        <v>75</v>
       </c>
       <c r="C74" s="4">
         <v>84</v>
@@ -1939,8 +1591,8 @@
       <c r="A75" s="7">
         <v>109369</v>
       </c>
-      <c r="B75" s="12" t="s">
-        <v>191</v>
+      <c r="B75" t="s">
+        <v>76</v>
       </c>
       <c r="C75" s="4">
         <v>84</v>
@@ -1950,8 +1602,8 @@
       <c r="A76" s="7">
         <v>5055</v>
       </c>
-      <c r="B76" s="12" t="s">
-        <v>192</v>
+      <c r="B76" t="s">
+        <v>77</v>
       </c>
       <c r="C76" s="4">
         <v>84</v>
@@ -1962,7 +1614,7 @@
         <v>117338</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>193</v>
+        <v>78</v>
       </c>
       <c r="C77" s="4">
         <v>84</v>
@@ -1973,7 +1625,7 @@
         <v>108575</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="C78" s="4">
         <v>84</v>
@@ -1984,7 +1636,7 @@
         <v>104977</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="C79" s="4">
         <v>84</v>
@@ -1995,7 +1647,7 @@
         <v>149718</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>196</v>
+        <v>81</v>
       </c>
       <c r="C80" s="4">
         <v>84</v>
@@ -2006,7 +1658,7 @@
         <v>137987</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>197</v>
+        <v>82</v>
       </c>
       <c r="C81" s="4">
         <v>84</v>
@@ -2017,7 +1669,7 @@
         <v>16387</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="C82" s="4">
         <v>84</v>
@@ -2028,7 +1680,7 @@
         <v>117936</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>199</v>
+        <v>84</v>
       </c>
       <c r="C83" s="4">
         <v>84</v>
@@ -2039,7 +1691,7 @@
         <v>107745</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="C84" s="4">
         <v>84</v>
@@ -2050,7 +1702,7 @@
         <v>102827</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>201</v>
+        <v>86</v>
       </c>
       <c r="C85" s="4">
         <v>84</v>
@@ -2061,7 +1713,7 @@
         <v>141064</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>202</v>
+        <v>87</v>
       </c>
       <c r="C86" s="4">
         <v>84</v>
@@ -2072,1298 +1724,539 @@
         <v>107032</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>203</v>
+        <v>88</v>
       </c>
       <c r="C87" s="4">
         <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="5">
-        <v>114809</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88" s="4">
-        <v>59</v>
-      </c>
+      <c r="A88" s="5"/>
+      <c r="C88" s="4"/>
     </row>
     <row r="89" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="3">
-        <v>2988</v>
-      </c>
-      <c r="B89" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C89" s="4">
-        <v>59</v>
-      </c>
+      <c r="A89" s="3"/>
+      <c r="C89" s="4"/>
     </row>
     <row r="90" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="5">
-        <v>3034</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C90" s="4">
-        <v>59</v>
-      </c>
+      <c r="A90" s="5"/>
+      <c r="C90" s="4"/>
     </row>
     <row r="91" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="3">
-        <v>148337</v>
-      </c>
-      <c r="B91" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C91" s="4">
-        <v>59</v>
-      </c>
+      <c r="A91" s="3"/>
+      <c r="C91" s="4"/>
     </row>
     <row r="92" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="5">
-        <v>8877</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" s="4">
-        <v>59</v>
-      </c>
+      <c r="A92" s="5"/>
+      <c r="C92" s="4"/>
     </row>
     <row r="93" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="3">
-        <v>3333</v>
-      </c>
-      <c r="B93" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" s="4">
-        <v>59</v>
-      </c>
+      <c r="A93" s="3"/>
+      <c r="C93" s="4"/>
     </row>
     <row r="94" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="5">
-        <v>19220</v>
-      </c>
-      <c r="B94" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94" s="4">
-        <v>59</v>
-      </c>
+      <c r="A94" s="5"/>
+      <c r="C94" s="4"/>
     </row>
     <row r="95" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="3">
-        <v>8895</v>
-      </c>
-      <c r="B95" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C95" s="4">
-        <v>59</v>
-      </c>
+      <c r="A95" s="3"/>
+      <c r="C95" s="4"/>
     </row>
     <row r="96" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="5">
-        <v>18210</v>
-      </c>
-      <c r="B96" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C96" s="4">
-        <v>59</v>
-      </c>
+      <c r="A96" s="5"/>
+      <c r="C96" s="4"/>
     </row>
     <row r="97" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="3">
-        <v>109379</v>
-      </c>
-      <c r="B97" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C97" s="4">
-        <v>59</v>
-      </c>
+      <c r="A97" s="3"/>
+      <c r="C97" s="4"/>
     </row>
     <row r="98" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="5">
-        <v>22124</v>
-      </c>
-      <c r="B98" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C98" s="4">
-        <v>59</v>
-      </c>
+      <c r="A98" s="5"/>
+      <c r="C98" s="4"/>
     </row>
     <row r="99" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="3">
-        <v>22788</v>
-      </c>
-      <c r="B99" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C99" s="4">
-        <v>84</v>
-      </c>
+      <c r="A99" s="3"/>
+      <c r="C99" s="4"/>
     </row>
     <row r="100" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="5">
-        <v>109250</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C100" s="4">
-        <v>59</v>
-      </c>
+      <c r="A100" s="5"/>
+      <c r="C100" s="4"/>
     </row>
     <row r="101" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="3">
-        <v>3832</v>
-      </c>
-      <c r="B101" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C101" s="4">
-        <v>59</v>
-      </c>
+      <c r="A101" s="3"/>
+      <c r="C101" s="4"/>
     </row>
     <row r="102" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="5">
-        <v>107404</v>
-      </c>
-      <c r="B102" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C102" s="4">
-        <v>82</v>
-      </c>
+      <c r="A102" s="5"/>
+      <c r="C102" s="4"/>
     </row>
     <row r="103" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="3">
-        <v>100310</v>
-      </c>
-      <c r="B103" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C103" s="4">
-        <v>59</v>
-      </c>
+      <c r="A103" s="3"/>
+      <c r="C103" s="4"/>
     </row>
     <row r="104" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="5">
-        <v>27820</v>
-      </c>
-      <c r="B104" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C104" s="4">
-        <v>59</v>
-      </c>
+      <c r="A104" s="5"/>
+      <c r="C104" s="4"/>
     </row>
     <row r="105" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="3">
-        <v>24845</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C105" s="4">
-        <v>59</v>
-      </c>
+      <c r="A105" s="3"/>
+      <c r="C105" s="4"/>
     </row>
     <row r="106" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="5">
-        <v>24911</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C106" s="4">
-        <v>82</v>
-      </c>
+      <c r="A106" s="5"/>
+      <c r="C106" s="4"/>
     </row>
     <row r="107" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="3">
-        <v>3833</v>
-      </c>
-      <c r="B107" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C107" s="4">
-        <v>59</v>
-      </c>
+      <c r="A107" s="3"/>
+      <c r="C107" s="4"/>
     </row>
     <row r="108" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="5">
-        <v>1238</v>
-      </c>
-      <c r="B108" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C108" s="4">
-        <v>65</v>
-      </c>
+      <c r="A108" s="5"/>
+      <c r="C108" s="4"/>
     </row>
     <row r="109" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="3">
-        <v>111330</v>
-      </c>
-      <c r="B109" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C109" s="4">
-        <v>59</v>
-      </c>
+      <c r="A109" s="3"/>
+      <c r="C109" s="4"/>
     </row>
     <row r="110" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="5">
-        <v>126062</v>
-      </c>
-      <c r="B110" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C110" s="4">
-        <v>59</v>
-      </c>
+      <c r="A110" s="5"/>
+      <c r="C110" s="4"/>
     </row>
     <row r="111" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="3">
-        <v>26160</v>
-      </c>
-      <c r="B111" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C111" s="4">
-        <v>59</v>
-      </c>
+      <c r="A111" s="3"/>
+      <c r="C111" s="4"/>
     </row>
     <row r="112" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="5">
-        <v>26834</v>
-      </c>
-      <c r="B112" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C112" s="4">
-        <v>59</v>
-      </c>
+      <c r="A112" s="5"/>
+      <c r="C112" s="4"/>
     </row>
     <row r="113" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="3">
-        <v>25827</v>
-      </c>
-      <c r="B113" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C113" s="4">
-        <v>59</v>
-      </c>
+      <c r="A113" s="3"/>
+      <c r="C113" s="4"/>
     </row>
     <row r="114" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="5">
-        <v>1191</v>
-      </c>
-      <c r="B114" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C114" s="4">
-        <v>59</v>
-      </c>
+      <c r="A114" s="5"/>
+      <c r="C114" s="4"/>
     </row>
     <row r="115" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="3">
-        <v>9348</v>
-      </c>
-      <c r="B115" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C115" s="4">
-        <v>59</v>
-      </c>
+      <c r="A115" s="3"/>
+      <c r="C115" s="4"/>
     </row>
     <row r="116" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="5">
-        <v>109051</v>
-      </c>
-      <c r="B116" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C116" s="4">
-        <v>59</v>
-      </c>
+      <c r="A116" s="5"/>
+      <c r="C116" s="4"/>
     </row>
     <row r="117" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="3">
-        <v>127574</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C117" s="4">
-        <v>59</v>
-      </c>
+      <c r="A117" s="3"/>
+      <c r="C117" s="4"/>
     </row>
     <row r="118" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="5">
-        <v>122863</v>
-      </c>
-      <c r="B118" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C118" s="4">
-        <v>59</v>
-      </c>
+      <c r="A118" s="5"/>
+      <c r="C118" s="4"/>
     </row>
     <row r="119" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="3">
-        <v>2990</v>
-      </c>
-      <c r="B119" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C119" s="4">
-        <v>59</v>
-      </c>
+      <c r="A119" s="3"/>
+      <c r="C119" s="4"/>
     </row>
     <row r="120" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="5">
-        <v>114972</v>
-      </c>
-      <c r="B120" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C120" s="4">
-        <v>59</v>
-      </c>
+      <c r="A120" s="5"/>
+      <c r="C120" s="4"/>
     </row>
     <row r="121" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="3">
-        <v>659</v>
-      </c>
-      <c r="B121" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C121" s="4">
-        <v>74</v>
-      </c>
+      <c r="A121" s="3"/>
+      <c r="C121" s="4"/>
     </row>
     <row r="122" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="5">
-        <v>1204</v>
-      </c>
-      <c r="B122" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C122" s="4">
-        <v>59</v>
-      </c>
+      <c r="A122" s="5"/>
+      <c r="C122" s="4"/>
     </row>
     <row r="123" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="3">
-        <v>3774</v>
-      </c>
-      <c r="B123" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C123" s="4">
-        <v>59</v>
-      </c>
+      <c r="A123" s="3"/>
+      <c r="C123" s="4"/>
     </row>
     <row r="124" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="5">
-        <v>121979</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C124" s="4">
-        <v>59</v>
-      </c>
+      <c r="A124" s="5"/>
+      <c r="C124" s="4"/>
     </row>
     <row r="125" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="3">
-        <v>130826</v>
-      </c>
-      <c r="B125" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C125" s="4">
-        <v>59</v>
-      </c>
+      <c r="A125" s="3"/>
+      <c r="C125" s="4"/>
     </row>
     <row r="126" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="5">
-        <v>17469</v>
-      </c>
-      <c r="B126" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C126" s="4">
-        <v>84</v>
-      </c>
+      <c r="A126" s="5"/>
+      <c r="C126" s="4"/>
     </row>
     <row r="127" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="3">
-        <v>113008</v>
-      </c>
-      <c r="B127" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C127" s="4">
-        <v>59</v>
-      </c>
+      <c r="A127" s="3"/>
+      <c r="C127" s="4"/>
     </row>
     <row r="128" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="5">
-        <v>10307</v>
-      </c>
-      <c r="B128" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C128" s="4">
-        <v>59</v>
-      </c>
+      <c r="A128" s="5"/>
+      <c r="C128" s="4"/>
     </row>
     <row r="129" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="3">
-        <v>24406</v>
-      </c>
-      <c r="B129" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C129" s="4">
-        <v>84</v>
-      </c>
+      <c r="A129" s="3"/>
+      <c r="C129" s="4"/>
     </row>
     <row r="130" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="5">
-        <v>117329</v>
-      </c>
-      <c r="B130" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C130" s="4">
-        <v>59</v>
-      </c>
+      <c r="A130" s="5"/>
+      <c r="C130" s="4"/>
     </row>
     <row r="131" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="3">
-        <v>107728</v>
-      </c>
-      <c r="B131" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C131" s="4">
-        <v>59</v>
-      </c>
+      <c r="A131" s="3"/>
+      <c r="C131" s="4"/>
     </row>
     <row r="132" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="5">
-        <v>135411</v>
-      </c>
-      <c r="B132" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C132" s="4">
-        <v>59</v>
-      </c>
+      <c r="A132" s="5"/>
+      <c r="C132" s="4"/>
     </row>
     <row r="133" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="3">
-        <v>109266</v>
-      </c>
-      <c r="B133" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C133" s="4">
-        <v>59</v>
-      </c>
+      <c r="A133" s="3"/>
+      <c r="C133" s="4"/>
     </row>
     <row r="134" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="5">
-        <v>110632</v>
-      </c>
-      <c r="B134" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C134" s="4">
-        <v>83</v>
-      </c>
+      <c r="A134" s="5"/>
+      <c r="C134" s="4"/>
     </row>
     <row r="135" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="3">
-        <v>107715</v>
-      </c>
-      <c r="B135" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C135" s="4">
-        <v>75</v>
-      </c>
+      <c r="A135" s="3"/>
+      <c r="C135" s="4"/>
     </row>
     <row r="136" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="5">
-        <v>118771</v>
-      </c>
-      <c r="B136" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C136" s="4">
-        <v>59</v>
-      </c>
+      <c r="A136" s="5"/>
+      <c r="C136" s="4"/>
     </row>
     <row r="137" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="3">
-        <v>102283</v>
-      </c>
-      <c r="B137" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C137" s="4">
-        <v>74</v>
-      </c>
+      <c r="A137" s="3"/>
+      <c r="C137" s="4"/>
     </row>
     <row r="138" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="5">
-        <v>1736</v>
-      </c>
-      <c r="B138" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C138" s="4">
-        <v>71</v>
-      </c>
+      <c r="A138" s="5"/>
+      <c r="C138" s="4"/>
     </row>
     <row r="139" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="3">
-        <v>126153</v>
-      </c>
-      <c r="B139" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C139" s="4">
-        <v>59</v>
-      </c>
+      <c r="A139" s="3"/>
+      <c r="C139" s="4"/>
     </row>
     <row r="140" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="5">
-        <v>118718</v>
-      </c>
-      <c r="B140" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C140" s="4">
-        <v>84</v>
-      </c>
+      <c r="A140" s="5"/>
+      <c r="C140" s="4"/>
     </row>
     <row r="141" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="3">
-        <v>18542</v>
-      </c>
-      <c r="B141" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C141" s="4">
-        <v>59</v>
-      </c>
+      <c r="A141" s="3"/>
+      <c r="C141" s="4"/>
     </row>
     <row r="142" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="5">
-        <v>27291</v>
-      </c>
-      <c r="B142" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C142" s="4">
-        <v>59</v>
-      </c>
+      <c r="A142" s="5"/>
+      <c r="C142" s="4"/>
     </row>
     <row r="143" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="3">
-        <v>1735</v>
-      </c>
-      <c r="B143" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C143" s="4">
-        <v>59</v>
-      </c>
+      <c r="A143" s="3"/>
+      <c r="C143" s="4"/>
     </row>
     <row r="144" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="5">
-        <v>26187</v>
-      </c>
-      <c r="B144" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C144" s="4">
-        <v>75</v>
-      </c>
+      <c r="A144" s="5"/>
+      <c r="C144" s="4"/>
     </row>
     <row r="145" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="7">
-        <v>110209</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C145" s="4">
-        <v>59</v>
-      </c>
+      <c r="A145" s="7"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="4"/>
     </row>
     <row r="146" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="7">
-        <v>110092</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C146" s="4">
-        <v>59</v>
-      </c>
+      <c r="A146" s="7"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="4"/>
     </row>
     <row r="147" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="7">
-        <v>849</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C147" s="4">
-        <v>59</v>
-      </c>
+      <c r="A147" s="7"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="4"/>
     </row>
     <row r="148" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="7">
-        <v>26046</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C148" s="4">
-        <v>59</v>
-      </c>
+      <c r="A148" s="7"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="4"/>
     </row>
     <row r="149" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="7">
-        <v>11567</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C149" s="4">
-        <v>56</v>
-      </c>
+      <c r="A149" s="7"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="4"/>
     </row>
     <row r="150" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="7">
-        <v>941</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C150" s="4">
-        <v>59</v>
-      </c>
+      <c r="A150" s="7"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="4"/>
     </row>
     <row r="151" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="7">
-        <v>108064</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C151" s="4">
-        <v>59</v>
-      </c>
+      <c r="A151" s="7"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="4"/>
     </row>
     <row r="152" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="7">
-        <v>124802</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C152" s="4">
-        <v>59</v>
-      </c>
+      <c r="A152" s="7"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="4"/>
     </row>
     <row r="153" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="7">
-        <v>945</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C153" s="4">
-        <v>59</v>
-      </c>
+      <c r="A153" s="7"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="4"/>
     </row>
     <row r="154" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="7">
-        <v>128515</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C154" s="4">
-        <v>59</v>
-      </c>
+      <c r="A154" s="7"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="4"/>
     </row>
     <row r="155" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="7">
-        <v>114768</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C155" s="4">
-        <v>59</v>
-      </c>
+      <c r="A155" s="7"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="4"/>
     </row>
     <row r="156" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="7">
-        <v>128027</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C156" s="4">
-        <v>59</v>
-      </c>
+      <c r="A156" s="7"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="4"/>
     </row>
     <row r="157" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="7">
-        <v>27424</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C157" s="4">
-        <v>59</v>
-      </c>
+      <c r="A157" s="7"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="4"/>
     </row>
     <row r="158" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="7">
-        <v>8104</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C158" s="4">
-        <v>58</v>
-      </c>
+      <c r="A158" s="7"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="4"/>
     </row>
     <row r="159" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="7">
-        <v>556</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C159" s="4">
-        <v>59</v>
-      </c>
+      <c r="A159" s="7"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="4"/>
     </row>
     <row r="160" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="7">
-        <v>110938</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C160" s="4">
-        <v>59</v>
-      </c>
+      <c r="A160" s="7"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="4"/>
     </row>
     <row r="161" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="7">
-        <v>103136</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C161" s="4">
-        <v>59</v>
-      </c>
+      <c r="A161" s="7"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="4"/>
     </row>
     <row r="162" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="7">
-        <v>1179</v>
-      </c>
-      <c r="B162" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C162" s="4">
-        <v>59</v>
-      </c>
+      <c r="A162" s="7"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="4"/>
     </row>
     <row r="163" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="7">
-        <v>110936</v>
-      </c>
-      <c r="B163" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C163" s="4">
-        <v>59</v>
-      </c>
+      <c r="A163" s="7"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="4"/>
     </row>
     <row r="164" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="7">
-        <v>109910</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C164" s="4">
-        <v>59</v>
-      </c>
+      <c r="A164" s="7"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="4"/>
     </row>
     <row r="165" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="7">
-        <v>2976</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C165" s="4">
-        <v>59</v>
-      </c>
+      <c r="A165" s="7"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="4"/>
     </row>
     <row r="166" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="7">
-        <v>10316</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C166" s="4">
-        <v>59</v>
-      </c>
+      <c r="A166" s="7"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="4"/>
     </row>
     <row r="167" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="7">
-        <v>111002</v>
-      </c>
-      <c r="B167" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C167" s="4">
-        <v>59</v>
-      </c>
+      <c r="A167" s="7"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="4"/>
     </row>
     <row r="168" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="7">
-        <v>9124</v>
-      </c>
-      <c r="B168" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C168" s="4">
-        <v>74</v>
-      </c>
+      <c r="A168" s="7"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="4"/>
     </row>
     <row r="169" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="7">
-        <v>119275</v>
-      </c>
-      <c r="B169" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C169" s="4">
-        <v>59</v>
-      </c>
+      <c r="A169" s="7"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="4"/>
     </row>
     <row r="170" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="7">
-        <v>111575</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C170" s="4">
-        <v>59</v>
-      </c>
+      <c r="A170" s="7"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="4"/>
     </row>
     <row r="171" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="7">
-        <v>119053</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C171" s="4">
-        <v>59</v>
-      </c>
+      <c r="A171" s="7"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="4"/>
     </row>
     <row r="172" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="7">
-        <v>134321</v>
-      </c>
-      <c r="B172" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C172" s="4">
-        <v>59</v>
-      </c>
+      <c r="A172" s="7"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="4"/>
     </row>
     <row r="173" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="7">
-        <v>124651</v>
-      </c>
-      <c r="B173" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C173" s="4">
-        <v>59</v>
-      </c>
+      <c r="A173" s="7"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="4"/>
     </row>
     <row r="174" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="7">
-        <v>136043</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C174" s="4">
-        <v>59</v>
-      </c>
+      <c r="A174" s="7"/>
+      <c r="B174" s="8"/>
+      <c r="C174" s="4"/>
     </row>
     <row r="175" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="7">
-        <v>26896</v>
-      </c>
-      <c r="B175" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C175" s="4">
-        <v>59</v>
-      </c>
+      <c r="A175" s="7"/>
+      <c r="B175" s="8"/>
+      <c r="C175" s="4"/>
     </row>
     <row r="176" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="7">
-        <v>103025</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C176" s="4">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="7">
-        <v>26869</v>
-      </c>
-      <c r="B177" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C177" s="4">
-        <v>59</v>
-      </c>
+      <c r="A176" s="7"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="4"/>
+    </row>
+    <row r="177" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="7"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="4"/>
     </row>
     <row r="178" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="7">
-        <v>156291</v>
-      </c>
-      <c r="B178" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C178" s="4">
-        <v>59</v>
-      </c>
+      <c r="A178" s="7"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="4"/>
     </row>
     <row r="179" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="7">
-        <v>112914</v>
-      </c>
-      <c r="B179" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C179" s="4">
-        <v>59</v>
-      </c>
+      <c r="A179" s="7"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="4"/>
     </row>
     <row r="180" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="7">
-        <v>9354</v>
-      </c>
-      <c r="B180" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C180" s="4">
-        <v>84</v>
-      </c>
+      <c r="A180" s="7"/>
+      <c r="B180" s="8"/>
+      <c r="C180" s="4"/>
     </row>
     <row r="181" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="3">
-        <v>119588</v>
-      </c>
-      <c r="B181" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C181" s="4">
-        <v>59</v>
-      </c>
+      <c r="A181" s="3"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="4"/>
     </row>
     <row r="182" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="3">
-        <v>119155</v>
-      </c>
-      <c r="B182" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C182" s="4">
-        <v>59</v>
-      </c>
+      <c r="A182" s="3"/>
+      <c r="B182" s="8"/>
+      <c r="C182" s="4"/>
     </row>
     <row r="183" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="3">
-        <v>107072</v>
-      </c>
-      <c r="B183" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C183" s="4">
-        <v>59</v>
-      </c>
+      <c r="A183" s="3"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="4"/>
     </row>
     <row r="184" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="3">
-        <v>153402</v>
-      </c>
-      <c r="B184" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C184" s="4">
-        <v>59</v>
-      </c>
+      <c r="A184" s="3"/>
+      <c r="B184" s="8"/>
+      <c r="C184" s="4"/>
     </row>
     <row r="185" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="3">
-        <v>110153</v>
-      </c>
-      <c r="B185" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C185" s="4">
-        <v>59</v>
-      </c>
+      <c r="A185" s="3"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="4"/>
     </row>
     <row r="186" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="3">
-        <v>3467</v>
-      </c>
-      <c r="B186" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C186" s="4">
-        <v>59</v>
-      </c>
+      <c r="A186" s="3"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="4"/>
     </row>
     <row r="187" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="3">
-        <v>100653</v>
-      </c>
-      <c r="B187" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C187" s="4">
-        <v>59</v>
-      </c>
+      <c r="A187" s="3"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="4"/>
     </row>
     <row r="188" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="3">
-        <v>3470</v>
-      </c>
-      <c r="B188" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C188" s="4">
-        <v>59</v>
-      </c>
+      <c r="A188" s="3"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="4"/>
     </row>
     <row r="189" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="3">
-        <v>815</v>
-      </c>
-      <c r="B189" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C189" s="4">
-        <v>66</v>
-      </c>
+      <c r="A189" s="3"/>
+      <c r="B189" s="8"/>
+      <c r="C189" s="4"/>
     </row>
     <row r="190" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="3">
-        <v>127599</v>
-      </c>
-      <c r="B190" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C190" s="4">
-        <v>55</v>
-      </c>
+      <c r="A190" s="3"/>
+      <c r="B190" s="8"/>
+      <c r="C190" s="4"/>
     </row>
     <row r="191" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="3">
-        <v>107073</v>
-      </c>
-      <c r="B191" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C191" s="4">
-        <v>59</v>
-      </c>
+      <c r="A191" s="3"/>
+      <c r="B191" s="8"/>
+      <c r="C191" s="4"/>
     </row>
     <row r="192" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="3">
-        <v>102941</v>
-      </c>
-      <c r="B192" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C192" s="4">
-        <v>59</v>
-      </c>
+      <c r="A192" s="3"/>
+      <c r="B192" s="8"/>
+      <c r="C192" s="4"/>
     </row>
     <row r="193" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="3">
-        <v>8626</v>
-      </c>
-      <c r="B193" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C193" s="4">
-        <v>80</v>
-      </c>
+      <c r="A193" s="3"/>
+      <c r="B193" s="8"/>
+      <c r="C193" s="4"/>
     </row>
     <row r="194" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="3">
-        <v>1483</v>
-      </c>
-      <c r="B194" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C194" s="4">
-        <v>84</v>
-      </c>
+      <c r="A194" s="3"/>
+      <c r="B194" s="8"/>
+      <c r="C194" s="4"/>
     </row>
     <row r="195" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="7">
-        <v>1471</v>
-      </c>
-      <c r="B195" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C195" s="4">
-        <v>84</v>
-      </c>
+      <c r="A195" s="7"/>
+      <c r="B195" s="8"/>
+      <c r="C195" s="4"/>
     </row>
     <row r="196" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="7">
-        <v>107579</v>
-      </c>
-      <c r="B196" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C196" s="4">
-        <v>59</v>
-      </c>
+      <c r="A196" s="7"/>
+      <c r="B196" s="8"/>
+      <c r="C196" s="4"/>
     </row>
     <row r="197" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="7">
-        <v>2505</v>
-      </c>
-      <c r="B197" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C197" s="4">
-        <v>84</v>
-      </c>
+      <c r="A197" s="7"/>
+      <c r="B197" s="8"/>
+      <c r="C197" s="4"/>
     </row>
     <row r="198" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="7">
-        <v>1467</v>
-      </c>
-      <c r="B198" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C198" s="4">
-        <v>76</v>
-      </c>
+      <c r="A198" s="7"/>
+      <c r="B198" s="8"/>
+      <c r="C198" s="4"/>
     </row>
     <row r="199" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="7">
-        <v>154917</v>
-      </c>
-      <c r="B199" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C199" s="4">
-        <v>59</v>
-      </c>
+      <c r="A199" s="7"/>
+      <c r="B199" s="8"/>
+      <c r="C199" s="4"/>
     </row>
     <row r="200" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="7">
-        <v>142558</v>
-      </c>
-      <c r="B200" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C200" s="4">
-        <v>59</v>
-      </c>
+      <c r="A200" s="7"/>
+      <c r="B200" s="8"/>
+      <c r="C200" s="4"/>
     </row>
     <row r="201" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="7">
-        <v>3081</v>
-      </c>
-      <c r="B201" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C201" s="4">
-        <v>59</v>
-      </c>
+      <c r="A201" s="7"/>
+      <c r="B201" s="8"/>
+      <c r="C201" s="4"/>
     </row>
     <row r="202" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="7">
-        <v>126060</v>
-      </c>
-      <c r="B202" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C202" s="4">
-        <v>59</v>
-      </c>
+      <c r="A202" s="7"/>
+      <c r="B202" s="8"/>
+      <c r="C202" s="4"/>
     </row>
     <row r="203" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="7">
-        <v>102312</v>
-      </c>
-      <c r="B203" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C203" s="4">
-        <v>74</v>
-      </c>
+      <c r="A203" s="7"/>
+      <c r="B203" s="8"/>
+      <c r="C203" s="4"/>
     </row>
     <row r="204" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="7">
-        <v>144023</v>
-      </c>
-      <c r="B204" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C204" s="4">
-        <v>59</v>
-      </c>
+      <c r="A204" s="7"/>
+      <c r="B204" s="8"/>
+      <c r="C204" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/tracking/compare/tracking-jibang.xlsx
+++ b/tracking/compare/tracking-jibang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22F4F63-8022-4C25-96F5-FD8F8442FC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DD2B06-F6F7-4F91-929E-40F47F290203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F72F01C2-0D10-4A5D-9DEC-7CBA030793CA}"/>
   </bookViews>
@@ -102,9 +102,6 @@
     <t>문지효성해링턴플레이스</t>
   </si>
   <si>
-    <t>엑스포4단지</t>
-  </si>
-  <si>
     <t>삼성푸른</t>
   </si>
   <si>
@@ -292,6 +289,10 @@
   </si>
   <si>
     <t>양학산KCC스위첸</t>
+  </si>
+  <si>
+    <t>엑스포</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -764,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA9D98A-2074-4B56-BBA4-6AC6B2B7E20B}">
   <dimension ref="A1:C204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.3"/>
@@ -1028,10 +1029,10 @@
     </row>
     <row r="24" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>6070</v>
+        <v>184337</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="C24" s="4">
         <v>84</v>
@@ -1042,7 +1043,7 @@
         <v>6046</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="4">
         <v>84</v>
@@ -1053,7 +1054,7 @@
         <v>114293</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="4">
         <v>84</v>
@@ -1064,7 +1065,7 @@
         <v>107708</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="4">
         <v>84</v>
@@ -1075,7 +1076,7 @@
         <v>106692</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="4">
         <v>84</v>
@@ -1086,7 +1087,7 @@
         <v>112420</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="4">
         <v>70</v>
@@ -1097,7 +1098,7 @@
         <v>113572</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="4">
         <v>74</v>
@@ -1108,7 +1109,7 @@
         <v>106972</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="4">
         <v>84</v>
@@ -1119,7 +1120,7 @@
         <v>114461</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="4">
         <v>72</v>
@@ -1130,7 +1131,7 @@
         <v>122589</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="4">
         <v>84</v>
@@ -1141,7 +1142,7 @@
         <v>18756</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="4">
         <v>84</v>
@@ -1152,7 +1153,7 @@
         <v>103963</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="4">
         <v>84</v>
@@ -1163,7 +1164,7 @@
         <v>112607</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" s="4">
         <v>84</v>
@@ -1174,7 +1175,7 @@
         <v>108375</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="4">
         <v>84</v>
@@ -1185,7 +1186,7 @@
         <v>110558</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="4">
         <v>84</v>
@@ -1196,7 +1197,7 @@
         <v>126163</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="4">
         <v>84</v>
@@ -1207,7 +1208,7 @@
         <v>111567</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" s="4">
         <v>84</v>
@@ -1218,7 +1219,7 @@
         <v>112814</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" s="4">
         <v>74</v>
@@ -1229,7 +1230,7 @@
         <v>104250</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="4">
         <v>84</v>
@@ -1240,7 +1241,7 @@
         <v>108422</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" s="4">
         <v>84</v>
@@ -1251,7 +1252,7 @@
         <v>115525</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="4">
         <v>84</v>
@@ -1262,7 +1263,7 @@
         <v>109024</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="4">
         <v>84</v>
@@ -1273,7 +1274,7 @@
         <v>103671</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C46" s="4">
         <v>84</v>
@@ -1284,7 +1285,7 @@
         <v>109541</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" s="4">
         <v>84</v>
@@ -1295,7 +1296,7 @@
         <v>103591</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48" s="4">
         <v>84</v>
@@ -1306,7 +1307,7 @@
         <v>101354</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49" s="4">
         <v>84</v>
@@ -1317,7 +1318,7 @@
         <v>17291</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C50" s="4">
         <v>84</v>
@@ -1328,7 +1329,7 @@
         <v>113478</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51" s="4">
         <v>84</v>
@@ -1339,7 +1340,7 @@
         <v>125767</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C52" s="4">
         <v>84</v>
@@ -1350,7 +1351,7 @@
         <v>108766</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C53" s="4">
         <v>84</v>
@@ -1361,7 +1362,7 @@
         <v>109377</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C54" s="4">
         <v>84</v>
@@ -1372,7 +1373,7 @@
         <v>25557</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C55" s="4">
         <v>84</v>
@@ -1383,7 +1384,7 @@
         <v>26134</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C56" s="4">
         <v>84</v>
@@ -1394,7 +1395,7 @@
         <v>108523</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C57" s="4">
         <v>84</v>
@@ -1405,7 +1406,7 @@
         <v>121913</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C58" s="4">
         <v>84</v>
@@ -1416,7 +1417,7 @@
         <v>117453</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C59" s="4">
         <v>84</v>
@@ -1427,7 +1428,7 @@
         <v>26322</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="4">
         <v>84</v>
@@ -1438,7 +1439,7 @@
         <v>103358</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C61" s="4">
         <v>84</v>
@@ -1449,7 +1450,7 @@
         <v>146718</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C62" s="4">
         <v>84</v>
@@ -1460,7 +1461,7 @@
         <v>111627</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C63" s="4">
         <v>84</v>
@@ -1471,7 +1472,7 @@
         <v>107332</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C64" s="4">
         <v>86</v>
@@ -1482,7 +1483,7 @@
         <v>104895</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="4">
         <v>84</v>
@@ -1493,7 +1494,7 @@
         <v>127006</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C66" s="4">
         <v>84</v>
@@ -1504,7 +1505,7 @@
         <v>103168</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C67" s="4">
         <v>84</v>
@@ -1515,7 +1516,7 @@
         <v>117345</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C68" s="4">
         <v>84</v>
@@ -1526,7 +1527,7 @@
         <v>19228</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C69" s="4">
         <v>84</v>
@@ -1537,7 +1538,7 @@
         <v>119614</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70" s="4">
         <v>84</v>
@@ -1548,7 +1549,7 @@
         <v>25580</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71" s="4">
         <v>84</v>
@@ -1559,7 +1560,7 @@
         <v>110159</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C72" s="4">
         <v>84</v>
@@ -1570,7 +1571,7 @@
         <v>113134</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C73" s="4">
         <v>75</v>
@@ -1581,7 +1582,7 @@
         <v>132124</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C74" s="4">
         <v>84</v>
@@ -1592,7 +1593,7 @@
         <v>109369</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C75" s="4">
         <v>84</v>
@@ -1603,7 +1604,7 @@
         <v>5055</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C76" s="4">
         <v>84</v>
@@ -1614,7 +1615,7 @@
         <v>117338</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C77" s="4">
         <v>84</v>
@@ -1625,7 +1626,7 @@
         <v>108575</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C78" s="4">
         <v>84</v>
@@ -1636,7 +1637,7 @@
         <v>104977</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C79" s="4">
         <v>84</v>
@@ -1647,7 +1648,7 @@
         <v>149718</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C80" s="4">
         <v>84</v>
@@ -1658,7 +1659,7 @@
         <v>137987</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C81" s="4">
         <v>84</v>
@@ -1669,7 +1670,7 @@
         <v>16387</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C82" s="4">
         <v>84</v>
@@ -1680,7 +1681,7 @@
         <v>117936</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C83" s="4">
         <v>84</v>
@@ -1691,7 +1692,7 @@
         <v>107745</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C84" s="4">
         <v>84</v>
@@ -1702,7 +1703,7 @@
         <v>102827</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C85" s="4">
         <v>84</v>
@@ -1713,7 +1714,7 @@
         <v>141064</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C86" s="4">
         <v>84</v>
@@ -1724,7 +1725,7 @@
         <v>107032</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C87" s="4">
         <v>83</v>

--- a/tracking/compare/tracking-jibang.xlsx
+++ b/tracking/compare/tracking-jibang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DD2B06-F6F7-4F91-929E-40F47F290203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEC8B6E-0446-4241-97A5-E4D08BCD68F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F72F01C2-0D10-4A5D-9DEC-7CBA030793CA}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F72F01C2-0D10-4A5D-9DEC-7CBA030793CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>ID</t>
   </si>
@@ -293,6 +293,42 @@
   <si>
     <t>엑스포</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>양정포레힐즈스위첸</t>
+  </si>
+  <si>
+    <t>양정자이더샵SK뷰</t>
+  </si>
+  <si>
+    <t>대원칸타빌멤버스</t>
+  </si>
+  <si>
+    <t>e편한세상시민공원1단지</t>
+  </si>
+  <si>
+    <t>서면아이파크1단지</t>
+  </si>
+  <si>
+    <t>포레나부산초읍</t>
+  </si>
+  <si>
+    <t>래미안어반파크</t>
+  </si>
+  <si>
+    <t>연지자이2차</t>
+  </si>
+  <si>
+    <t>롯데캐슬라센트</t>
+  </si>
+  <si>
+    <t>가야롯데캐슬골드아너</t>
+  </si>
+  <si>
+    <t>개금롯데캐슬</t>
+  </si>
+  <si>
+    <t>서면비스타동원</t>
   </si>
 </sst>
 </file>
@@ -412,7 +448,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -448,6 +484,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -765,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA9D98A-2074-4B56-BBA4-6AC6B2B7E20B}">
   <dimension ref="A1:C204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.3"/>
@@ -1732,52 +1771,136 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="5"/>
-      <c r="C88" s="4"/>
+      <c r="A88" s="12">
+        <v>131691</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" s="4">
+        <v>84</v>
+      </c>
     </row>
     <row r="89" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="3"/>
-      <c r="C89" s="4"/>
+      <c r="A89" s="7">
+        <v>152746</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" s="4">
+        <v>84</v>
+      </c>
     </row>
     <row r="90" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="5"/>
-      <c r="C90" s="4"/>
+      <c r="A90" s="6">
+        <v>13627</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" s="4">
+        <v>84</v>
+      </c>
     </row>
     <row r="91" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="3"/>
-      <c r="C91" s="4"/>
+      <c r="A91" s="6">
+        <v>127321</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" s="4">
+        <v>84</v>
+      </c>
     </row>
     <row r="92" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="5"/>
-      <c r="C92" s="4"/>
+      <c r="A92" s="12">
+        <v>119101</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" s="4">
+        <v>84</v>
+      </c>
     </row>
     <row r="93" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="3"/>
-      <c r="C93" s="4"/>
+      <c r="A93" s="12">
+        <v>116166</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93" s="4">
+        <v>84</v>
+      </c>
     </row>
     <row r="94" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="5"/>
-      <c r="C94" s="4"/>
+      <c r="A94" s="7">
+        <v>126473</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94" s="4">
+        <v>84</v>
+      </c>
     </row>
     <row r="95" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="3"/>
-      <c r="C95" s="4"/>
+      <c r="A95" s="6">
+        <v>26210</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" s="4">
+        <v>84</v>
+      </c>
     </row>
     <row r="96" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="5"/>
-      <c r="C96" s="4"/>
+      <c r="A96" s="7">
+        <v>134851</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" s="4">
+        <v>84</v>
+      </c>
     </row>
     <row r="97" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="3"/>
-      <c r="C97" s="4"/>
+      <c r="A97" s="6">
+        <v>127003</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" s="4">
+        <v>84</v>
+      </c>
     </row>
     <row r="98" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="5"/>
-      <c r="C98" s="4"/>
+      <c r="A98" s="12">
+        <v>100717</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" s="4">
+        <v>84</v>
+      </c>
     </row>
     <row r="99" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="3"/>
-      <c r="C99" s="4"/>
+      <c r="A99" s="7">
+        <v>136397</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" s="4">
+        <v>84</v>
+      </c>
     </row>
     <row r="100" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
